--- a/app/utils/teste.xlsx
+++ b/app/utils/teste.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
